--- a/BowenWeekReport20170510.xlsx
+++ b/BowenWeekReport20170510.xlsx
@@ -399,8 +399,14 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <v>Coding</v>
+      </c>
       <c r="B2" t="str">
-        <v>null hours</v>
+        <v>10 hours</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Bowen</v>
       </c>
       <c r="D2" t="str">
         <v>undefined%</v>

--- a/BowenWeekReport20170510.xlsx
+++ b/BowenWeekReport20170510.xlsx
@@ -409,7 +409,21 @@
         <v>Bowen</v>
       </c>
       <c r="D2" t="str">
-        <v>undefined%</v>
+        <v>80%</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <v>NodeJS</v>
+      </c>
+      <c r="B3" t="str">
+        <v>8 hours</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Bowen</v>
+      </c>
+      <c r="D3" t="str">
+        <v>90%</v>
       </c>
     </row>
   </sheetData>

--- a/BowenWeekReport20170510.xlsx
+++ b/BowenWeekReport20170510.xlsx
@@ -400,30 +400,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <v>Coding</v>
+        <v>Processing Icon</v>
       </c>
       <c r="B2" t="str">
-        <v>10 hours</v>
+        <v>1 hours</v>
       </c>
       <c r="C2" t="str">
         <v>Bowen</v>
       </c>
       <c r="D2" t="str">
-        <v>80%</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="str">
-        <v>NodeJS</v>
-      </c>
-      <c r="B3" t="str">
-        <v>8 hours</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Bowen</v>
-      </c>
-      <c r="D3" t="str">
-        <v>90%</v>
+        <v>100%</v>
       </c>
     </row>
   </sheetData>
